--- a/Progresso.xlsx
+++ b/Progresso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yooga\Desktop\Alura\MC-API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42AF56D6-595A-4628-8B37-42E28FC9042C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D01DD1-CF95-4521-9E71-6A68CD6808B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DE652898-8D68-4455-8CA0-701EDBBD0C90}"/>
   </bookViews>
@@ -159,7 +159,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -213,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -233,21 +233,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,7 +563,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,10 +588,10 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -602,10 +599,10 @@
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -618,10 +615,10 @@
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -629,26 +626,26 @@
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="E7" s="9"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -656,10 +653,10 @@
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -667,12 +664,12 @@
       <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -680,12 +677,12 @@
       <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="9" t="s">
         <v>15</v>
       </c>
     </row>
